--- a/EXCEL_OUPUT/Toyo Tyre Australia Pty Ltd Financial Report YE 31.xlsx
+++ b/EXCEL_OUPUT/Toyo Tyre Australia Pty Ltd Financial Report YE 31.xlsx
@@ -17,27 +17,26 @@
     <sheet name="page24_table1" sheetId="8" r:id="rId8"/>
     <sheet name="page23_table0" sheetId="9" r:id="rId9"/>
     <sheet name="page23_table1" sheetId="10" r:id="rId10"/>
-    <sheet name="page22_table0" sheetId="11" r:id="rId11"/>
-    <sheet name="page21_table0" sheetId="12" r:id="rId12"/>
-    <sheet name="page20_table0" sheetId="13" r:id="rId13"/>
-    <sheet name="page20_table1" sheetId="14" r:id="rId14"/>
-    <sheet name="page19_table0" sheetId="15" r:id="rId15"/>
-    <sheet name="page18_table0" sheetId="16" r:id="rId16"/>
-    <sheet name="page17_table0" sheetId="17" r:id="rId17"/>
-    <sheet name="page14_table0" sheetId="18" r:id="rId18"/>
-    <sheet name="page12_table0" sheetId="19" r:id="rId19"/>
-    <sheet name="page11_table0" sheetId="20" r:id="rId20"/>
-    <sheet name="page9_table0" sheetId="21" r:id="rId21"/>
-    <sheet name="page8_table0" sheetId="22" r:id="rId22"/>
-    <sheet name="page7_table0" sheetId="23" r:id="rId23"/>
-    <sheet name="page6_table0" sheetId="24" r:id="rId24"/>
+    <sheet name="page21_table0" sheetId="11" r:id="rId11"/>
+    <sheet name="page20_table0" sheetId="12" r:id="rId12"/>
+    <sheet name="page20_table1" sheetId="13" r:id="rId13"/>
+    <sheet name="page19_table0" sheetId="14" r:id="rId14"/>
+    <sheet name="page18_table0" sheetId="15" r:id="rId15"/>
+    <sheet name="page17_table0" sheetId="16" r:id="rId16"/>
+    <sheet name="page14_table0" sheetId="17" r:id="rId17"/>
+    <sheet name="page12_table0" sheetId="18" r:id="rId18"/>
+    <sheet name="page11_table0" sheetId="19" r:id="rId19"/>
+    <sheet name="page9_table0" sheetId="20" r:id="rId20"/>
+    <sheet name="page8_table0" sheetId="21" r:id="rId21"/>
+    <sheet name="page7_table0" sheetId="22" r:id="rId22"/>
+    <sheet name="page6_table0" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="634">
   <si>
     <t>Other Information (continued)</t>
   </si>
@@ -51,7 +50,7 @@
     <t>In our opinion, the</t>
   </si>
   <si>
-    <t>We have audited the Financial ReportofToyo</t>
+    <t>We have audited the Financial Report of Toyo</t>
   </si>
   <si>
     <t>Report of the Company is in accordance with</t>
@@ -276,7 +275,7 @@
     <t>On issue at 1 January</t>
   </si>
   <si>
-    <t>Oni issue at 31 December</t>
+    <t>On issue at 31 December</t>
   </si>
   <si>
     <t>Total</t>
@@ -288,7 +287,7 @@
     <t>Cents per share (fully franked)</t>
   </si>
   <si>
-    <t>Total dollar</t>
+    <t>Total dollar amount</t>
   </si>
   <si>
     <t>$</t>
@@ -348,10 +347,10 @@
     <t>14 Employee benefits</t>
   </si>
   <si>
-    <t>Liability for annual leave and other employee benefits</t>
-  </si>
-  <si>
-    <t>Liabilityfor long-service leave</t>
+    <t>Liability for annual leave and other current employee benefits</t>
+  </si>
+  <si>
+    <t>Liability for long-service leave</t>
   </si>
   <si>
     <t>Trade and other payables</t>
@@ -384,6 +383,9 @@
     <t>4293</t>
   </si>
   <si>
+    <t>1.139</t>
+  </si>
+  <si>
     <t>1139</t>
   </si>
   <si>
@@ -405,6 +407,9 @@
     <t>(2,009)</t>
   </si>
   <si>
+    <t>11.043</t>
+  </si>
+  <si>
     <t>4090</t>
   </si>
   <si>
@@ -429,6 +434,9 @@
     <t>at 1 January</t>
   </si>
   <si>
+    <t>at31 December</t>
+  </si>
+  <si>
     <t>at 31 December</t>
   </si>
   <si>
@@ -441,7 +449,7 @@
     <t>8160000</t>
   </si>
   <si>
-    <t>B class ordinary shares</t>
+    <t>B class ordinaryshares</t>
   </si>
   <si>
     <t>21840000</t>
@@ -450,1471 +458,1480 @@
     <t>8.160,000</t>
   </si>
   <si>
+    <t>Aclass ordinary shares</t>
+  </si>
+  <si>
     <t>4080</t>
   </si>
   <si>
+    <t>Bo class ordinary shares</t>
+  </si>
+  <si>
     <t>10920</t>
   </si>
   <si>
-    <t>LO</t>
+    <t>Toyo Tyre Australia Pty Ltd</t>
+  </si>
+  <si>
+    <t>Notes to the financial statements (continued)</t>
+  </si>
+  <si>
+    <t>For the year ended 31 December 2022</t>
+  </si>
+  <si>
+    <t>Discontinued operation (continued)</t>
+  </si>
+  <si>
+    <t>(b) Results of discontinued operations</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>Results from operating activities</t>
+  </si>
+  <si>
+    <t>Income tax</t>
+  </si>
+  <si>
+    <t>Results from operating activities, net of tax</t>
+  </si>
+  <si>
+    <t>Gain on sale of discontinued operations</t>
+  </si>
+  <si>
+    <t>Income tax on gain on sale of discontinued operations</t>
+  </si>
+  <si>
+    <t>Profit from discontinued operations, net of tax</t>
+  </si>
+  <si>
+    <t>Cash on hand</t>
+  </si>
+  <si>
+    <t>Cash at bank</t>
+  </si>
+  <si>
+    <t>Cash and cash equivalents in the statement of cash flows</t>
+  </si>
+  <si>
+    <t>Trade and other receivables</t>
+  </si>
+  <si>
+    <t>Deposits</t>
+  </si>
+  <si>
+    <t>Amount receivable from controllin g entity (Refer Note 19)</t>
+  </si>
+  <si>
+    <t>10 Inventories</t>
+  </si>
+  <si>
+    <t>Finished goods</t>
+  </si>
+  <si>
+    <t>Goods in transit</t>
+  </si>
+  <si>
+    <t>Provision for inventory obsolescence</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>41838</t>
+  </si>
+  <si>
+    <t>626</t>
+  </si>
+  <si>
+    <t>25210</t>
+  </si>
+  <si>
+    <t>21156</t>
+  </si>
+  <si>
+    <t>13236</t>
+  </si>
+  <si>
+    <t>(73)</t>
+  </si>
+  <si>
+    <t>34319</t>
+  </si>
+  <si>
+    <t>16230</t>
+  </si>
+  <si>
+    <t>(19,643)</t>
+  </si>
+  <si>
+    <t>(3,413)</t>
+  </si>
+  <si>
+    <t>1024</t>
+  </si>
+  <si>
+    <t>(2,389)</t>
+  </si>
+  <si>
+    <t>52186</t>
+  </si>
+  <si>
+    <t>(15,656)</t>
+  </si>
+  <si>
+    <t>34141</t>
+  </si>
+  <si>
+    <t>92311</t>
+  </si>
+  <si>
+    <t>677</t>
+  </si>
+  <si>
+    <t>25729</t>
+  </si>
+  <si>
+    <t>14472</t>
+  </si>
+  <si>
+    <t>13324</t>
+  </si>
+  <si>
+    <t>(161)</t>
+  </si>
+  <si>
+    <t>27635</t>
+  </si>
+  <si>
+    <t>(a) Gain on sale of discontinued operations</t>
+  </si>
+  <si>
+    <t>Property, plant and equipment</t>
+  </si>
+  <si>
+    <t>Proceeds from discontinued operation</t>
+  </si>
+  <si>
+    <t>Prima facie gain on disposal of discontinued operation</t>
+  </si>
+  <si>
+    <t>Effect of sale and lease-back transaction gain transferred to Right-of-use asset</t>
+  </si>
+  <si>
+    <t>(19,776)</t>
+  </si>
+  <si>
+    <t>75264</t>
+  </si>
+  <si>
+    <t>55488</t>
+  </si>
+  <si>
+    <t>(3,302)</t>
+  </si>
+  <si>
+    <t>Income tax (continued)</t>
+  </si>
+  <si>
+    <t>(c) Deferred tax assets/liabilties) (continued)</t>
+  </si>
+  <si>
+    <t>Movement in deferred tax assets</t>
+  </si>
+  <si>
+    <t>31 December 2022</t>
+  </si>
+  <si>
+    <t>Employee benefits</t>
+  </si>
+  <si>
+    <t>Accruals</t>
+  </si>
+  <si>
+    <t>Prepayments</t>
+  </si>
+  <si>
+    <t>Inventory obsolescence</t>
+  </si>
+  <si>
+    <t>Leases</t>
+  </si>
+  <si>
+    <t>Blackhole expenses</t>
+  </si>
+  <si>
+    <t>31 December 2021</t>
+  </si>
+  <si>
+    <t>Balance at 1 January</t>
+  </si>
+  <si>
+    <t>(69)</t>
+  </si>
+  <si>
+    <t>581</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>(22)</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>877</t>
+  </si>
+  <si>
+    <t>1649</t>
+  </si>
+  <si>
+    <t>Balance at 1</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>(651)</t>
+  </si>
+  <si>
+    <t>930</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>(26)</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>478</t>
+  </si>
+  <si>
+    <t>Recognised in profit or loss</t>
+  </si>
+  <si>
+    <t>(6)</t>
+  </si>
+  <si>
+    <t>(3)</t>
+  </si>
+  <si>
+    <t>(9)</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>(493)</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>(310)</t>
+  </si>
+  <si>
+    <t>Recognised in profit or loss 2021</t>
+  </si>
+  <si>
+    <t>582</t>
+  </si>
+  <si>
+    <t>(349)</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>866</t>
+  </si>
+  <si>
+    <t>1171</t>
+  </si>
+  <si>
+    <t>Balance at 31 December</t>
+  </si>
+  <si>
+    <t>(75)</t>
+  </si>
+  <si>
+    <t>578</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>(19)</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>384</t>
+  </si>
+  <si>
+    <t>1339</t>
+  </si>
+  <si>
+    <t>Balance at 31</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>Salaries and wages</t>
+  </si>
+  <si>
+    <t>Contributions to defined contribution plans</t>
+  </si>
+  <si>
+    <t>Decrease in liability for employee entitlements</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Finance income and finance costs</t>
+  </si>
+  <si>
+    <t>Interest income from bank deposits</t>
+  </si>
+  <si>
+    <t>Finance income</t>
+  </si>
+  <si>
+    <t>Borrowing costs from:</t>
+  </si>
+  <si>
+    <t>Associated companies</t>
+  </si>
+  <si>
+    <t>Finance costs</t>
+  </si>
+  <si>
+    <t>Net finance income /(costs) recognised in profit or loss</t>
+  </si>
+  <si>
+    <t>(a) Amounts recognised in profit or loss</t>
+  </si>
+  <si>
+    <t>Current tax expense</t>
+  </si>
+  <si>
+    <t>Deferred tax expense</t>
+  </si>
+  <si>
+    <t>(b) Reconciliation of effective tax rate</t>
+  </si>
+  <si>
+    <t>Profit before tax</t>
+  </si>
+  <si>
+    <t>Income tax using Company's tax rate of 30% (2021:30%)</t>
+  </si>
+  <si>
+    <t>Tax effect of:</t>
+  </si>
+  <si>
+    <t>Permanent differences</t>
+  </si>
+  <si>
+    <t>Adjustments for prior years</t>
+  </si>
+  <si>
+    <t>Income tax expense on continuing operations</t>
+  </si>
+  <si>
+    <t>(c) Deferred tax assets/liabilities)</t>
+  </si>
+  <si>
+    <t>Personnel expenses</t>
+  </si>
+  <si>
+    <t>6537</t>
+  </si>
+  <si>
+    <t>637</t>
+  </si>
+  <si>
+    <t>(12)</t>
+  </si>
+  <si>
+    <t>454</t>
+  </si>
+  <si>
+    <t>7616</t>
+  </si>
+  <si>
+    <t>437</t>
+  </si>
+  <si>
+    <t>(146)</t>
+  </si>
+  <si>
+    <t>(159)</t>
+  </si>
+  <si>
+    <t>(305)</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>3078</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>3388</t>
+  </si>
+  <si>
+    <t>10442</t>
+  </si>
+  <si>
+    <t>3133</t>
+  </si>
+  <si>
+    <t>10450</t>
+  </si>
+  <si>
+    <t>857</t>
+  </si>
+  <si>
+    <t>(1,162)</t>
+  </si>
+  <si>
+    <t>690</t>
+  </si>
+  <si>
+    <t>10835</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>(66)</t>
+  </si>
+  <si>
+    <t>(78)</t>
+  </si>
+  <si>
+    <t>(144)</t>
+  </si>
+  <si>
+    <t>(117)</t>
+  </si>
+  <si>
+    <t>3190</t>
+  </si>
+  <si>
+    <t>(1,171)</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>6.719</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>(34)</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>(K)</t>
+  </si>
+  <si>
+    <t>(I)</t>
+  </si>
+  <si>
+    <t>Significant accounting policies (continued)</t>
+  </si>
+  <si>
+    <t>Income tax expense comprises current</t>
+  </si>
+  <si>
+    <t>except to the extent that it relates to</t>
+  </si>
+  <si>
+    <t>comprehensive income.</t>
+  </si>
+  <si>
+    <t>Current tax is the expected tax payable or receivable on</t>
+  </si>
+  <si>
+    <t>or substantively enacted at the reporting</t>
+  </si>
+  <si>
+    <t>tax payable also includes any tax liability</t>
+  </si>
+  <si>
+    <t>Deferred tax is recognised in respect of</t>
+  </si>
+  <si>
+    <t>for financial reporting purposes and the amounts used for taxation purposes.</t>
+  </si>
+  <si>
+    <t>temporary differences on the initial recognition of assets or liabilities in a transaction combination and that affects neither accounting nor taxabl le profit or loss</t>
+  </si>
+  <si>
+    <t>temporary differences related to investments in subsidiaries and jointly controlled entities to the extent that it is probabie that they will not reverse in the foreseeable future</t>
+  </si>
+  <si>
+    <t>taxable temporary differences arising</t>
+  </si>
+  <si>
+    <t>Deferred tax is measured at the tax rates that are expected to be applied to temporary differences when they reverse,</t>
+  </si>
+  <si>
+    <t>based on the laws that have been enacted or substantively enacted by the reporting date.</t>
+  </si>
+  <si>
+    <t>Deferred tax assets and liabilities are offset if there is a legally enforceable right to offset</t>
+  </si>
+  <si>
+    <t>assets, and they relate to income taxes</t>
+  </si>
+  <si>
+    <t>entities, but they intend to settle current</t>
+  </si>
+  <si>
+    <t>realised simultaneously.</t>
+  </si>
+  <si>
+    <t>A deferred tax asset is recognised for</t>
+  </si>
+  <si>
+    <t>extent that it is probable that future taxable profits will be available</t>
+  </si>
+  <si>
+    <t>assets are reviewed at each reporting date and are reduced to the extent that it is no longer probable that the related</t>
+  </si>
+  <si>
+    <t>tax benefit will be realised.</t>
+  </si>
+  <si>
+    <t>Additional income tax expenses that arise from the distribution of cash dividends are recognised</t>
+  </si>
+  <si>
+    <t>the liability to pay the related dividend is</t>
+  </si>
+  <si>
+    <t>its shareholders.</t>
+  </si>
+  <si>
+    <t>Goods and services tax</t>
+  </si>
+  <si>
+    <t>Revenue, expenses and assets are recognised net of the amount of</t>
+  </si>
+  <si>
+    <t>amount of GST incurred is not recoverable</t>
+  </si>
+  <si>
+    <t>as part of the cost of acquisition of the asset or as part of the expense.</t>
+  </si>
+  <si>
+    <t>Receivables and payables are stated with the amount of GST included. The net amount of GST recoverable from, or payable to, the ATO is included as a current asset or liability in the statement of financial position.</t>
+  </si>
+  <si>
+    <t>Cash flows are included in the statement</t>
+  </si>
+  <si>
+    <t>from investing and financing activities which are recoverable from, or payable to, the ATO are classified as operating cash flows.</t>
+  </si>
+  <si>
+    <t>and deferred tax. Current tax and deferred tax is recognised in profit or loss</t>
+  </si>
+  <si>
+    <t>a business</t>
+  </si>
+  <si>
+    <t>date, and any</t>
+  </si>
+  <si>
+    <t>arising from the declaration of dividends.</t>
+  </si>
+  <si>
+    <t>temporary differences between the carrying amounts</t>
+  </si>
+  <si>
+    <t>on the initial</t>
+  </si>
+  <si>
+    <t>levied by the same tax authority on the same taxable</t>
+  </si>
+  <si>
+    <t>tax liabilities and assets on a net basis or their tax assets and liabilities will be</t>
+  </si>
+  <si>
+    <t>unused tax losses, tax credits and deductible temporary differences, to the</t>
+  </si>
+  <si>
+    <t>recognised. The Company does not distribute non-cash</t>
+  </si>
+  <si>
+    <t>from the taxation authority.</t>
+  </si>
+  <si>
+    <t>of cash flows</t>
+  </si>
+  <si>
+    <t>combination, or</t>
+  </si>
+  <si>
+    <t>the taxable income or loss for the year,</t>
+  </si>
+  <si>
+    <t>adjustment to tax payable in respect of previous years. Current</t>
+  </si>
+  <si>
+    <t>recognition of</t>
+  </si>
+  <si>
+    <t>on a gross</t>
+  </si>
+  <si>
+    <t>items recognised directly in equity or in other</t>
+  </si>
+  <si>
+    <t>goodwill.</t>
+  </si>
+  <si>
+    <t>against which they can</t>
+  </si>
+  <si>
+    <t>goods and services tax</t>
+  </si>
+  <si>
+    <t>In these circumstances,</t>
+  </si>
+  <si>
+    <t>basis. The GST components of cash flows arising</t>
+  </si>
+  <si>
+    <t>using tax rates enacted</t>
+  </si>
+  <si>
+    <t>of assets and liabilities</t>
+  </si>
+  <si>
+    <t>that is not a business</t>
+  </si>
+  <si>
+    <t>current tax liabilities and</t>
+  </si>
+  <si>
+    <t>entity, or on different tax</t>
+  </si>
+  <si>
+    <t>be utilised. Deferred tax</t>
+  </si>
+  <si>
+    <t>at the same time that</t>
+  </si>
+  <si>
+    <t>assets as dividends to</t>
+  </si>
+  <si>
+    <t>(GST), except where the</t>
+  </si>
+  <si>
+    <t>the GST is recognised</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>sources</t>
+  </si>
+  <si>
+    <t>payments</t>
+  </si>
+  <si>
+    <t>fixed payments, including in- substance fixed payments;</t>
+  </si>
+  <si>
+    <t>lease</t>
+  </si>
+  <si>
+    <t>amounts expected to be payable under a residual value guarantee; and</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>termination</t>
+  </si>
+  <si>
+    <t>liability</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>assessment</t>
+  </si>
+  <si>
+    <t>The</t>
+  </si>
+  <si>
+    <t>Short-term leases and leases of low-value assets</t>
   </si>
   <si>
     <t>a</t>
   </si>
   <si>
-    <t>Toyo Tyre Australia Pty Ltd</t>
-  </si>
-  <si>
-    <t>Notes to the financial statements (continued)</t>
-  </si>
-  <si>
-    <t>For the year ended 31 December 2022</t>
-  </si>
-  <si>
-    <t>Discontinued operation (continued)</t>
-  </si>
-  <si>
-    <t>(b) Results of discontinued operations</t>
-  </si>
-  <si>
-    <t>Revenue</t>
-  </si>
-  <si>
-    <t>Expenses</t>
-  </si>
-  <si>
-    <t>Results from operating activities</t>
-  </si>
-  <si>
-    <t>Income tax</t>
-  </si>
-  <si>
-    <t>Results from operating activities, net of tax</t>
-  </si>
-  <si>
-    <t>Gain on sale of discontinued operations</t>
-  </si>
-  <si>
-    <t>Income tax on gain on sale of discontinued operations</t>
-  </si>
-  <si>
-    <t>Profit from discontinued operations, net of tax</t>
-  </si>
-  <si>
-    <t>Cash on hand</t>
-  </si>
-  <si>
-    <t>Cash at bank</t>
-  </si>
-  <si>
-    <t>Cash and cash equivalents in the statement of cash flows</t>
-  </si>
-  <si>
-    <t>Trade and other receivables</t>
-  </si>
-  <si>
-    <t>Deposits</t>
-  </si>
-  <si>
-    <t>Amount receivable from controlling entity (Refer Note 19)</t>
-  </si>
-  <si>
-    <t>10 Inventories</t>
-  </si>
-  <si>
-    <t>Finished goods</t>
-  </si>
-  <si>
-    <t>Goods in transit</t>
-  </si>
-  <si>
-    <t>Provision for inventory obsolescence</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>41838</t>
-  </si>
-  <si>
-    <t>626</t>
-  </si>
-  <si>
-    <t>25210</t>
-  </si>
-  <si>
-    <t>21156</t>
-  </si>
-  <si>
-    <t>13236</t>
-  </si>
-  <si>
-    <t>(73)</t>
-  </si>
-  <si>
-    <t>34319</t>
-  </si>
-  <si>
-    <t>16230</t>
-  </si>
-  <si>
-    <t>(19,643)</t>
-  </si>
-  <si>
-    <t>(3,413)</t>
-  </si>
-  <si>
-    <t>1024</t>
-  </si>
-  <si>
-    <t>(2,389)</t>
-  </si>
-  <si>
-    <t>52186</t>
-  </si>
-  <si>
-    <t>(15,656)</t>
-  </si>
-  <si>
-    <t>34141</t>
-  </si>
-  <si>
-    <t>92311</t>
-  </si>
-  <si>
-    <t>677</t>
-  </si>
-  <si>
-    <t>25729</t>
-  </si>
-  <si>
-    <t>14472</t>
-  </si>
-  <si>
-    <t>13324</t>
-  </si>
-  <si>
-    <t>(161)</t>
-  </si>
-  <si>
-    <t>27635</t>
-  </si>
-  <si>
-    <t>(a) Gain on sale of discontinued operations</t>
-  </si>
-  <si>
-    <t>Property, plant and equipment</t>
-  </si>
-  <si>
-    <t>Proceeds from discontinued operation</t>
-  </si>
-  <si>
-    <t>Prima facie gain on disposal of discontinued operation</t>
-  </si>
-  <si>
-    <t>Effect of sale and lease-back transaction gain transferred to Right-of-use asset</t>
-  </si>
-  <si>
-    <t>(19,776)</t>
-  </si>
-  <si>
-    <t>75264</t>
-  </si>
-  <si>
-    <t>55488</t>
-  </si>
-  <si>
-    <t>(3,302)</t>
-  </si>
-  <si>
-    <t>tax (continued)</t>
-  </si>
-  <si>
-    <t>(c) Deferred tax assets/lliabilities) (continued)</t>
-  </si>
-  <si>
-    <t>Moemerlicdeleuntimuzaaste</t>
-  </si>
-  <si>
-    <t>31 December 2022</t>
-  </si>
-  <si>
-    <t>Employee benefits</t>
-  </si>
-  <si>
-    <t>Accruals</t>
-  </si>
-  <si>
-    <t>Prepayments</t>
-  </si>
-  <si>
-    <t>Inventory obsolescence</t>
-  </si>
-  <si>
-    <t>Leases</t>
-  </si>
-  <si>
-    <t>Blackhole expenses</t>
-  </si>
-  <si>
-    <t>31 December 2021</t>
-  </si>
-  <si>
-    <t>Balance at 1 January</t>
-  </si>
-  <si>
-    <t>(69)</t>
-  </si>
-  <si>
-    <t>581</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>(22)</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>877</t>
-  </si>
-  <si>
-    <t>1649</t>
-  </si>
-  <si>
-    <t>Balance at 1</t>
-  </si>
-  <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>(651)</t>
-  </si>
-  <si>
-    <t>930</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>(26)</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>478</t>
-  </si>
-  <si>
-    <t>Recognised in profit or loss</t>
-  </si>
-  <si>
-    <t>(6)</t>
-  </si>
-  <si>
-    <t>(3)</t>
-  </si>
-  <si>
-    <t>(9)</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>(493)</t>
-  </si>
-  <si>
-    <t>224</t>
-  </si>
-  <si>
-    <t>(310)</t>
-  </si>
-  <si>
-    <t>Recognised in profit or loss 2021</t>
-  </si>
-  <si>
-    <t>582</t>
-  </si>
-  <si>
-    <t>(349)</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>866</t>
-  </si>
-  <si>
-    <t>1171</t>
-  </si>
-  <si>
-    <t>Balance at 31 December</t>
-  </si>
-  <si>
-    <t>(75)</t>
-  </si>
-  <si>
-    <t>578</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>(19)</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>384</t>
-  </si>
-  <si>
-    <t>1339</t>
-  </si>
-  <si>
-    <t>Balance at 31</t>
-  </si>
-  <si>
-    <t>December</t>
-  </si>
-  <si>
-    <t>Salaries and wages</t>
-  </si>
-  <si>
-    <t>Contributions to defined contribution plans</t>
-  </si>
-  <si>
-    <t>Decrease in liability for employee entitlements</t>
-  </si>
-  <si>
-    <t>Others</t>
+    <t>contract</t>
+  </si>
+  <si>
+    <t>comprises</t>
+  </si>
+  <si>
+    <t>accrues</t>
+  </si>
+  <si>
+    <t>comprise</t>
+  </si>
+  <si>
+    <t>attributable</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>early</t>
+  </si>
+  <si>
+    <t>income</t>
+  </si>
+  <si>
+    <t>costs</t>
+  </si>
+  <si>
+    <t>directly</t>
+  </si>
+  <si>
+    <t>exercise</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>estimate</t>
+  </si>
+  <si>
+    <t>whether</t>
+  </si>
+  <si>
+    <t>elected</t>
+  </si>
+  <si>
+    <t>short-term</t>
+  </si>
+  <si>
+    <t>each</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>Buildings</t>
+  </si>
+  <si>
+    <t>Plant and equipment</t>
+  </si>
+  <si>
+    <t>Motor Vehicles</t>
+  </si>
+  <si>
+    <t>Office Equipment</t>
+  </si>
+  <si>
+    <t>Furniture Fixtures and Fittings</t>
+  </si>
+  <si>
+    <t>Computer Equipment</t>
+  </si>
+  <si>
+    <t>3%</t>
+  </si>
+  <si>
+    <t>5-15%</t>
+  </si>
+  <si>
+    <t>22.5%</t>
+  </si>
+  <si>
+    <t>15 25%</t>
+  </si>
+  <si>
+    <t>7.5%</t>
+  </si>
+  <si>
+    <t>25%</t>
+  </si>
+  <si>
+    <t>Diminishing Value</t>
+  </si>
+  <si>
+    <t>Straight Line / Diminishing Value</t>
+  </si>
+  <si>
+    <t>asset</t>
+  </si>
+  <si>
+    <t>its contractual terms give rise on specified dates to cash flows that are solely payments of principal and interest on</t>
+  </si>
+  <si>
+    <t>itis held within a business model whose objective is achieved by both collecting contractual cash flows and selling</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>the principal amount outstanding.</t>
+  </si>
+  <si>
+    <t>On initial recognition of an equity investment that is not held for trading, the Company may irrevocably elect to present subsequent changes in the investment's fair value in OCI. This election is made on an investment-by investment basis.</t>
+  </si>
+  <si>
+    <t>All financial assets not classified as measured at amortised cost or FVOCI as described</t>
+  </si>
+  <si>
+    <t>assets.</t>
+  </si>
+  <si>
+    <t>asset that otherwise meets the requirements to be measured at amortised cost or at FVOCI as at FVTPL if doing so</t>
+  </si>
+  <si>
+    <t>eliminates or significantly reduces an accounting mismatch that would otherwise arise.</t>
+  </si>
+  <si>
+    <t>are recognised in profit or loss.</t>
+  </si>
+  <si>
+    <t>profit or loss. Any gain or loss on derecognition is recognised in profit or loss.</t>
+  </si>
+  <si>
+    <t>These assets are subsequently measured at fair value.</t>
+  </si>
+  <si>
+    <t>exchange</t>
+  </si>
+  <si>
+    <t>recognised in OCI. On derecognition, gains and losses accumulated in OCI are reclassified to profit or loss.</t>
+  </si>
+  <si>
+    <t>assets</t>
+  </si>
+  <si>
+    <t>in OCI and are never reclassified to profit or loss.</t>
+  </si>
+  <si>
+    <t>(a)</t>
+  </si>
+  <si>
+    <t>(b)</t>
+  </si>
+  <si>
+    <t>(c)</t>
+  </si>
+  <si>
+    <t>Significant accounting policies</t>
+  </si>
+  <si>
+    <t>The accounting policies set</t>
+  </si>
+  <si>
+    <t>statements, except if mentioned otherwise.</t>
+  </si>
+  <si>
+    <t>Foreign currency transactions</t>
+  </si>
+  <si>
+    <t>Transactions in foreign currencies</t>
+  </si>
+  <si>
+    <t>dates of the transactions. Monetary assets and liabilities denominated in foreign currencies</t>
+  </si>
+  <si>
+    <t>retranslated to the functional currency at the exchange rate at that date. The foreign currency</t>
+  </si>
+  <si>
+    <t>items is the difference between amortised cost in the functional currency at the beginning of the period, adjusted for</t>
+  </si>
+  <si>
+    <t>effective interest and payments during the period, and the amortised cost in foreign currer ncy translated at the</t>
+  </si>
+  <si>
+    <t>exchange rate at the end of the year.</t>
+  </si>
+  <si>
+    <t>Non-monetary items denominated in foreign currencies that are measured at fair value</t>
+  </si>
+  <si>
+    <t>functional currency at the exchange rate at the date that the fair value was determined. Foreign currency differences</t>
+  </si>
+  <si>
+    <t>arising on retranslation are recognised in profit or loss.</t>
+  </si>
+  <si>
+    <t>Discontinued operation</t>
+  </si>
+  <si>
+    <t>clearly dis tinguished from the rest of the Company and which:</t>
+  </si>
+  <si>
+    <t>represents a separate major line of business of geographic area of operations;</t>
+  </si>
+  <si>
+    <t>is part of a single co-ordinated plan to dispose of a separate major line of business</t>
+  </si>
+  <si>
+    <t>operations; or</t>
+  </si>
+  <si>
+    <t>isa subsidiary acquired exclusively with a view to resale.</t>
+  </si>
+  <si>
+    <t>Classification as a discontinued</t>
+  </si>
+  <si>
+    <t>be classified as held for sale.</t>
+  </si>
+  <si>
+    <t>When an operation is classified as a discontinued operation, the comparative statement of profit or loss and other</t>
+  </si>
+  <si>
+    <t>comprehensive income is re-presented as if the operation had been discontinued from the start of the comparative</t>
+  </si>
+  <si>
+    <t>Financial instruments</t>
+  </si>
+  <si>
+    <t>(D Recognition and initial measurement</t>
+  </si>
+  <si>
+    <t>Trade receivables and debt securities issued are initially recognised when they are originated. All other financial assets and financial liabilities are initially recognised when the Company becomes a party to the contractual provisions of the</t>
+  </si>
+  <si>
+    <t>instrument.</t>
+  </si>
+  <si>
+    <t>A financial asset (unless it is a trade receivable without a significant fir inancing component) or financial liability is initially measured at fair value plus, for an item not at FVTPL transaction costs that are directly attri ibutable to its acquisition or</t>
+  </si>
+  <si>
+    <t>issue. A trade receivable without a significant financing component is initially measured at the</t>
+  </si>
+  <si>
+    <t>(i) Classification and subsequent measurement</t>
+  </si>
+  <si>
+    <t>Financial assets</t>
+  </si>
+  <si>
+    <t>On initial recognition, a financial asset is classified as measured at: amortised cost; FVOCI equity investment; or FVTPL.</t>
+  </si>
+  <si>
+    <t>Financial assets are not reclassified subsequent to their initial recognition unless the Company changes its business model for managing financial assets, in which case all affected financial assets are reclassified on the first day of the</t>
+  </si>
+  <si>
+    <t>out below have been applied consistently to all periods presented in these financial</t>
+  </si>
+  <si>
+    <t>are translated to the functional currency of the Company</t>
+  </si>
+  <si>
+    <t>operation occurs at the earlier of disposal or when the operation meets the criteria to</t>
+  </si>
+  <si>
+    <t>at exchange rates at the</t>
+  </si>
+  <si>
+    <t>at the reporting date are</t>
+  </si>
+  <si>
+    <t>gain or loss on monetary</t>
+  </si>
+  <si>
+    <t>are retranslated to the</t>
+  </si>
+  <si>
+    <t>or geographic area of</t>
+  </si>
+  <si>
+    <t>transaction price.</t>
+  </si>
+  <si>
+    <t>debt investment; FVOCI</t>
+  </si>
+  <si>
+    <t>Cash flows from operating activities</t>
+  </si>
+  <si>
+    <t>Cash receipts from customers</t>
+  </si>
+  <si>
+    <t>Cash paid to suppliers and employees</t>
+  </si>
+  <si>
+    <t>Cash generated from operations</t>
+  </si>
+  <si>
+    <t>Interest received</t>
+  </si>
+  <si>
+    <t>Interest paid</t>
+  </si>
+  <si>
+    <t>Income tax paid</t>
+  </si>
+  <si>
+    <t>Net cash (used in)/from operating activities</t>
+  </si>
+  <si>
+    <t>Cash flows from investing activities</t>
+  </si>
+  <si>
+    <t>Acquisition of property, plant and equipment</t>
+  </si>
+  <si>
+    <t>Proceeds from discontinued operations</t>
+  </si>
+  <si>
+    <t>Net cash (used in)/from investing activities</t>
+  </si>
+  <si>
+    <t>Cash flows from financing activities</t>
+  </si>
+  <si>
+    <t>Payment of lease liabilities</t>
+  </si>
+  <si>
+    <t>Dividends paid</t>
+  </si>
+  <si>
+    <t>Net cash used in financing activities</t>
+  </si>
+  <si>
+    <t>Net (decreasel/ncrease in cash and cash equivalents</t>
+  </si>
+  <si>
+    <t>Cash and cash equivalents at beginning of year</t>
+  </si>
+  <si>
+    <t>Cash and cash equivalents at end of year</t>
+  </si>
+  <si>
+    <t>Note</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>Interest income from bank deposits</t>
-  </si>
-  <si>
-    <t>Finance income</t>
-  </si>
-  <si>
-    <t>Borrowing costs from:</t>
-  </si>
-  <si>
-    <t>Associated companies</t>
-  </si>
-  <si>
-    <t>Finance costs</t>
-  </si>
-  <si>
-    <t>Net finance income /(costs) recognised in profit or loss</t>
-  </si>
-  <si>
-    <t>(a) Amounts recognised in profit or loss</t>
-  </si>
-  <si>
-    <t>Current tax expense</t>
-  </si>
-  <si>
-    <t>Deferred tax expense</t>
-  </si>
-  <si>
-    <t>(b) Reconciliation of effective tax rate</t>
-  </si>
-  <si>
-    <t>Profit before tax</t>
-  </si>
-  <si>
-    <t>Income tax using Company' s tax rate of 30% (2021: 30%)</t>
-  </si>
-  <si>
-    <t>Tax effect of:</t>
-  </si>
-  <si>
-    <t>Permanent differences</t>
-  </si>
-  <si>
-    <t>Adjustments for prior years</t>
-  </si>
-  <si>
-    <t>Income tax expense on continuing operations</t>
-  </si>
-  <si>
-    <t>(c) Deferred tax assets/lliabilities)</t>
-  </si>
-  <si>
-    <t>Personnel expenses</t>
-  </si>
-  <si>
-    <t>6537</t>
-  </si>
-  <si>
-    <t>637</t>
-  </si>
-  <si>
-    <t>(12)</t>
-  </si>
-  <si>
-    <t>454</t>
-  </si>
-  <si>
-    <t>7616</t>
-  </si>
-  <si>
-    <t>437</t>
-  </si>
-  <si>
-    <t>(146)</t>
-  </si>
-  <si>
-    <t>(159)</t>
-  </si>
-  <si>
-    <t>(305)</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>3078</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>3388</t>
-  </si>
-  <si>
-    <t>10442</t>
-  </si>
-  <si>
-    <t>3133</t>
-  </si>
-  <si>
-    <t>10450</t>
-  </si>
-  <si>
-    <t>857</t>
-  </si>
-  <si>
-    <t>(1,162)</t>
-  </si>
-  <si>
-    <t>690</t>
-  </si>
-  <si>
-    <t>10835</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>(66)</t>
-  </si>
-  <si>
-    <t>(78)</t>
-  </si>
-  <si>
-    <t>(144)</t>
-  </si>
-  <si>
-    <t>(117)</t>
-  </si>
-  <si>
-    <t>3190</t>
-  </si>
-  <si>
-    <t>(1,171)</t>
-  </si>
-  <si>
-    <t>2019</t>
+    <t>7la)</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>141418</t>
+  </si>
+  <si>
+    <t>(132,280)</t>
+  </si>
+  <si>
+    <t>9138</t>
+  </si>
+  <si>
+    <t>(17,997)</t>
+  </si>
+  <si>
+    <t>(8,727)</t>
+  </si>
+  <si>
+    <t>(962)</t>
+  </si>
+  <si>
+    <t>(4,293)</t>
+  </si>
+  <si>
+    <t>(36,491)</t>
+  </si>
+  <si>
+    <t>(40,784)</t>
+  </si>
+  <si>
+    <t>(50,473)</t>
+  </si>
+  <si>
+    <t>153942</t>
+  </si>
+  <si>
+    <t>(145,925)</t>
+  </si>
+  <si>
+    <t>8017</t>
+  </si>
+  <si>
+    <t>(3,632)</t>
+  </si>
+  <si>
+    <t>4268</t>
+  </si>
+  <si>
+    <t>(885)</t>
+  </si>
+  <si>
+    <t>74379</t>
+  </si>
+  <si>
+    <t>(1,931)</t>
+  </si>
+  <si>
+    <t>(3,030)</t>
+  </si>
+  <si>
+    <t>(4,961)</t>
+  </si>
+  <si>
+    <t>73686</t>
+  </si>
+  <si>
+    <t>18629</t>
+  </si>
+  <si>
+    <t>Balance at 1 January 2021</t>
+  </si>
+  <si>
+    <t>Total comprehensive income for the year</t>
+  </si>
+  <si>
+    <t>Profit for the year</t>
+  </si>
+  <si>
+    <t>Other comprehensive income</t>
+  </si>
+  <si>
+    <t>Transactions with owners, recorded directly in equity</t>
+  </si>
+  <si>
+    <t>Dividends to equity holders 15</t>
+  </si>
+  <si>
+    <t>Total transactions with owners, recorded directly in equity</t>
+  </si>
+  <si>
+    <t>Balance at 31 December 2021 15</t>
+  </si>
+  <si>
+    <t>Balance at 1 January 2022</t>
+  </si>
+  <si>
+    <t>Balance at 31 December 2022 15</t>
+  </si>
+  <si>
+    <t>Share capital $'000</t>
+  </si>
+  <si>
+    <t>Retained earnings $'000</t>
+  </si>
+  <si>
+    <t>44012</t>
+  </si>
+  <si>
+    <t>38841</t>
+  </si>
+  <si>
+    <t>13,030)</t>
+  </si>
+  <si>
+    <t>79823</t>
+  </si>
+  <si>
+    <t>7054</t>
+  </si>
+  <si>
+    <t>50386</t>
+  </si>
+  <si>
+    <t>Total $'000</t>
+  </si>
+  <si>
+    <t>59012</t>
+  </si>
+  <si>
+    <t>94823</t>
+  </si>
+  <si>
+    <t>65386</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>Total current assets</t>
+  </si>
+  <si>
+    <t>Deferred tax assets</t>
+  </si>
+  <si>
+    <t>Other assets</t>
+  </si>
+  <si>
+    <t>Total non-current assets</t>
+  </si>
+  <si>
+    <t>Total assets</t>
+  </si>
+  <si>
+    <t>Liabilities</t>
+  </si>
+  <si>
+    <t>Lease liabili ities</t>
+  </si>
+  <si>
+    <t>Current tax liability</t>
+  </si>
+  <si>
+    <t>Total current liabilities</t>
+  </si>
+  <si>
+    <t>Deferred tax liabilities</t>
+  </si>
+  <si>
+    <t>Total non-current liabilities</t>
+  </si>
+  <si>
+    <t>Total liabilities</t>
+  </si>
+  <si>
+    <t>Net assets</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>Share capital</t>
+  </si>
+  <si>
+    <t>Retained earnings</t>
+  </si>
+  <si>
+    <t>Total equity</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>6lcl</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>680</t>
+  </si>
+  <si>
+    <t>102051</t>
+  </si>
+  <si>
+    <t>9943</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>11347</t>
+  </si>
+  <si>
+    <t>113398</t>
+  </si>
+  <si>
+    <t>1779</t>
+  </si>
+  <si>
+    <t>43239</t>
+  </si>
+  <si>
+    <t>4773</t>
+  </si>
+  <si>
+    <t>48012</t>
+  </si>
+  <si>
+    <t>815</t>
+  </si>
+  <si>
+    <t>146494</t>
+  </si>
+  <si>
+    <t>11358</t>
+  </si>
+  <si>
+    <t>13072</t>
+  </si>
+  <si>
+    <t>159566</t>
+  </si>
+  <si>
+    <t>16698</t>
+  </si>
+  <si>
+    <t>57070</t>
+  </si>
+  <si>
+    <t>7673</t>
+  </si>
+  <si>
+    <t>64743</t>
+  </si>
+  <si>
+    <t>Continuing operations</t>
+  </si>
+  <si>
+    <t>Other income</t>
+  </si>
+  <si>
+    <t>Cost of good sold (raw materials, goods purchased and change in</t>
+  </si>
+  <si>
+    <t>Depreciation and amortisation</t>
+  </si>
+  <si>
+    <t>Employee expenses</t>
+  </si>
+  <si>
+    <t>Freight and cartage expenses</t>
+  </si>
+  <si>
+    <t>Marketing and advertisement expenses</t>
+  </si>
+  <si>
+    <t>Occupancy, utilities and office expenses</t>
+  </si>
+  <si>
+    <t>Other expenses</t>
+  </si>
+  <si>
+    <t>Net finance income 1 (costs)</t>
+  </si>
+  <si>
+    <t>Income tax expense</t>
+  </si>
+  <si>
+    <t>Profit from continuing operations</t>
+  </si>
+  <si>
+    <t>Profit from discontinued operation, net of tax</t>
+  </si>
+  <si>
+    <t>Other comprehensive income for the period, net of tax</t>
+  </si>
+  <si>
+    <t>6la)</t>
+  </si>
+  <si>
+    <t>127121</t>
+  </si>
+  <si>
+    <t>922</t>
+  </si>
+  <si>
+    <t>(91,345)</t>
+  </si>
+  <si>
+    <t>(3,265)</t>
+  </si>
+  <si>
+    <t>(7,616)</t>
+  </si>
+  <si>
+    <t>(8,039)</t>
+  </si>
+  <si>
+    <t>(2,728)</t>
+  </si>
+  <si>
+    <t>(2,642)</t>
+  </si>
+  <si>
+    <t>(2,098)</t>
+  </si>
+  <si>
+    <t>10310</t>
+  </si>
+  <si>
+    <t>(3,388)</t>
+  </si>
+  <si>
+    <t>123354</t>
+  </si>
+  <si>
+    <t>(85,830)</t>
+  </si>
+  <si>
+    <t>(2,773)</t>
+  </si>
+  <si>
+    <t>(10,835)</t>
+  </si>
+  <si>
+    <t>(7,743)</t>
+  </si>
+  <si>
+    <t>(2,613)</t>
+  </si>
+  <si>
+    <t>(3,829)</t>
+  </si>
+  <si>
+    <t>(2,895)</t>
+  </si>
+  <si>
+    <t>6836</t>
   </si>
   <si>
     <t>6719</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>(34)</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>(k)</t>
-  </si>
-  <si>
-    <t>(I)</t>
-  </si>
-  <si>
-    <t>Significant accounting policies (continued)</t>
-  </si>
-  <si>
-    <t>Income tax expense comprises current</t>
-  </si>
-  <si>
-    <t>except to the extent that it relates to</t>
-  </si>
-  <si>
-    <t>comprehensive income.</t>
-  </si>
-  <si>
-    <t>Current tax is the expected tax payable or receivable on</t>
-  </si>
-  <si>
-    <t>ors substantively enacted at the reporting</t>
-  </si>
-  <si>
-    <t>tax payable also includes any tax liability</t>
-  </si>
-  <si>
-    <t>Deferred tax is recognised in respect of</t>
-  </si>
-  <si>
-    <t>for financial reporting purposes and the amounts used for taxation purposes.</t>
-  </si>
-  <si>
-    <t>temporary differences on the initial recognition of assets or liabilities in a transaction combination and that affects neither accounting nor taxabl le profit or loss</t>
-  </si>
-  <si>
-    <t>temporary differences related to investments in subsidiaries and jointly controlled entities probable that they will not in the foreseeable future</t>
-  </si>
-  <si>
-    <t>taxable temporary differences arising</t>
-  </si>
-  <si>
-    <t>Deferred tax is measured at the tax rates</t>
-  </si>
-  <si>
-    <t>based on the laws that have been enacted or substantively enacted by the reporting date.</t>
-  </si>
-  <si>
-    <t>Deferred tax assets and liabilities are offset if there iS a legally enforceable right to offset</t>
-  </si>
-  <si>
-    <t>assets, and they relate to income taxes</t>
-  </si>
-  <si>
-    <t>entities, but they intend to settle current</t>
-  </si>
-  <si>
-    <t>realised simultaneously.</t>
-  </si>
-  <si>
-    <t>A deferred tax asset is recognised for</t>
-  </si>
-  <si>
-    <t>extent that it is probable that future taxable profits will be available</t>
-  </si>
-  <si>
-    <t>assets are reviewed at each reporting date and are reduced to the extent that it is no longer probable that the related</t>
-  </si>
-  <si>
-    <t>tax benefit will be realised.</t>
-  </si>
-  <si>
-    <t>Additional income tax expenses that arise from the distribution of cash dividends are recognised</t>
-  </si>
-  <si>
-    <t>the liability to pay the related dividend is</t>
-  </si>
-  <si>
-    <t>its shareholders.</t>
-  </si>
-  <si>
-    <t>Goods and services tax</t>
-  </si>
-  <si>
-    <t>Revenue, expenses and assets are recognised net of the amount of</t>
-  </si>
-  <si>
-    <t>amount of GST incurred is not recoverable</t>
-  </si>
-  <si>
-    <t>as part of the cost of acquisition of the asset or as part of the expense.</t>
-  </si>
-  <si>
-    <t>Receivables and payables are stated with the of GST included. The net amount of GST recoverable from, or payable to, the ATO is included as a current asset or liability in the statement of financial position.</t>
-  </si>
-  <si>
-    <t>Cash flows are included in the statement</t>
-  </si>
-  <si>
-    <t>from investing and financing activities which are recoverable from, or payable to, the ATO are classified as operating cash flows.</t>
-  </si>
-  <si>
-    <t>and deferred tax. Current tax and deferred tax is recognised in profit or loss</t>
-  </si>
-  <si>
-    <t>a business</t>
-  </si>
-  <si>
-    <t>date, and any</t>
-  </si>
-  <si>
-    <t>arising from the declaration of dividends.</t>
-  </si>
-  <si>
-    <t>temporary differences between the carrying amounts</t>
-  </si>
-  <si>
-    <t>on the initial</t>
-  </si>
-  <si>
-    <t>that are expected to be applied to temporary differences when they reverse,</t>
-  </si>
-  <si>
-    <t>levied by the same tax authority on the same taxable</t>
-  </si>
-  <si>
-    <t>tax liabilities and assets on a net basis or their tax assets and liabilities will be</t>
-  </si>
-  <si>
-    <t>unused tax losses, tax credits and deductible temporary differences, to the</t>
-  </si>
-  <si>
-    <t>recognised. The Company does not distribute non-cash</t>
-  </si>
-  <si>
-    <t>from the taxation authority.</t>
-  </si>
-  <si>
-    <t>of cash flows</t>
-  </si>
-  <si>
-    <t>combination, or</t>
-  </si>
-  <si>
-    <t>the taxable income or loss for the year,</t>
-  </si>
-  <si>
-    <t>adjustment to</t>
-  </si>
-  <si>
-    <t>recognition of</t>
-  </si>
-  <si>
-    <t>on a gross</t>
-  </si>
-  <si>
-    <t>items recognised directly in equity or in other</t>
-  </si>
-  <si>
-    <t>tax payable in respect of previous years. Current</t>
-  </si>
-  <si>
-    <t>goodwill.</t>
-  </si>
-  <si>
-    <t>against which they can</t>
-  </si>
-  <si>
-    <t>goods and services tax</t>
-  </si>
-  <si>
-    <t>In these circumstances,</t>
-  </si>
-  <si>
-    <t>basis. The GST components of cash flows arising</t>
-  </si>
-  <si>
-    <t>using tax rates enacted</t>
-  </si>
-  <si>
-    <t>of assets and liabilities</t>
-  </si>
-  <si>
-    <t>that is not a business</t>
-  </si>
-  <si>
-    <t>to the extent that it is</t>
-  </si>
-  <si>
-    <t>current tax liabilities and</t>
-  </si>
-  <si>
-    <t>entity, or on different tax</t>
-  </si>
-  <si>
-    <t>be utilised. Deferred tax</t>
-  </si>
-  <si>
-    <t>at the same time that</t>
-  </si>
-  <si>
-    <t>assets as dividends to</t>
-  </si>
-  <si>
-    <t>(GST), except where the</t>
-  </si>
-  <si>
-    <t>the GST is recognised</t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>payments</t>
-  </si>
-  <si>
-    <t>fixed payments, including in substance fixed payments;</t>
-  </si>
-  <si>
-    <t>lease</t>
-  </si>
-  <si>
-    <t>amounts expected to be payable under a residual value guarantee; and</t>
-  </si>
-  <si>
-    <t>optional</t>
-  </si>
-  <si>
-    <t>termination</t>
-  </si>
-  <si>
-    <t>liability</t>
-  </si>
-  <si>
-    <t>change</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>assessment</t>
-  </si>
-  <si>
-    <t>The</t>
-  </si>
-  <si>
-    <t>Short-term leases and leases of low-value assets</t>
-  </si>
-  <si>
-    <t>an</t>
-  </si>
-  <si>
-    <t>contract</t>
-  </si>
-  <si>
-    <t>comprises</t>
-  </si>
-  <si>
-    <t>accrues</t>
-  </si>
-  <si>
-    <t>comprise</t>
-  </si>
-  <si>
-    <t>directly</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>variable</t>
-  </si>
-  <si>
-    <t>early</t>
-  </si>
-  <si>
-    <t>income</t>
-  </si>
-  <si>
-    <t>costs</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>estimate</t>
-  </si>
-  <si>
-    <t>whether</t>
-  </si>
-  <si>
-    <t>elected</t>
-  </si>
-  <si>
-    <t>leases,</t>
-  </si>
-  <si>
-    <t>each</t>
-  </si>
-  <si>
-    <t>Finance</t>
-  </si>
-  <si>
-    <t>attributable</t>
-  </si>
-  <si>
-    <t>foreign</t>
-  </si>
-  <si>
-    <t>Buildings</t>
-  </si>
-  <si>
-    <t>Plant and equipment</t>
-  </si>
-  <si>
-    <t>Motor Vehicles</t>
-  </si>
-  <si>
-    <t>Office Equipment</t>
-  </si>
-  <si>
-    <t>Furniture Fixtures and Fittings</t>
-  </si>
-  <si>
-    <t>Computer Equipment</t>
-  </si>
-  <si>
-    <t>3%</t>
-  </si>
-  <si>
-    <t>5-15%</t>
-  </si>
-  <si>
-    <t>22.5%</t>
-  </si>
-  <si>
-    <t>15 25%</t>
-  </si>
-  <si>
-    <t>7.5%</t>
-  </si>
-  <si>
-    <t>25%</t>
-  </si>
-  <si>
-    <t>Diminishing Value</t>
-  </si>
-  <si>
-    <t>Straight Line / Diminishing Value</t>
-  </si>
-  <si>
-    <t>asset</t>
-  </si>
-  <si>
-    <t>its contractual terms give rise on specified dates to cash flows that are solely payments of principal and interest on</t>
-  </si>
-  <si>
-    <t>itis held within a business model whose objective IS achieved by both collecting contractual cash flows and selling</t>
-  </si>
-  <si>
-    <t>whose</t>
-  </si>
-  <si>
-    <t>the principal outstanding.</t>
-  </si>
-  <si>
-    <t>On initial recognition of an equity investment that is not held for trading, the Company may irrevocably elect to present subsequent changes in the investment's fair value in OCI. This election IS made on an investment-by investment basis.</t>
-  </si>
-  <si>
-    <t>Allf financial assets not Cl lassified as measured at amortised cost or FVOCI as described</t>
-  </si>
-  <si>
-    <t>assets.</t>
-  </si>
-  <si>
-    <t>asset that otherwise meets the requirements to be measured at amortised cost or at FVOCI as at FVTPL if doing SO</t>
-  </si>
-  <si>
-    <t>eliminates or significantly an accounting mismatch that would otherwise arise.</t>
-  </si>
-  <si>
-    <t>are recognised in profit or loss.</t>
-  </si>
-  <si>
-    <t>profit or loss. Any gain or loss on derecognition is recognised in profit or loss.</t>
-  </si>
-  <si>
-    <t>These assets are subsequently measured at fair value.</t>
-  </si>
-  <si>
-    <t>gains</t>
-  </si>
-  <si>
-    <t>recognised in OCI. On derecognition, gains and losses accumulated in OCI are reclassified to profit or loss.</t>
-  </si>
-  <si>
-    <t>assets</t>
-  </si>
-  <si>
-    <t>in OCI and are never reclassified to profit or loss.</t>
-  </si>
-  <si>
-    <t>(a)</t>
-  </si>
-  <si>
-    <t>(b)</t>
-  </si>
-  <si>
-    <t>(c)</t>
-  </si>
-  <si>
-    <t>Significant accounting policies</t>
-  </si>
-  <si>
-    <t>The accounting policies set</t>
-  </si>
-  <si>
-    <t>statements, except if mentioned otherwise.</t>
-  </si>
-  <si>
-    <t>Foreign currency transactions</t>
-  </si>
-  <si>
-    <t>Transactions in foreign currencies</t>
-  </si>
-  <si>
-    <t>dates of the transacti ions. Monetary assets and liabilities denominated in foreign currencies</t>
-  </si>
-  <si>
-    <t>retranslated to the functional currency at the exchange rate at that date. The foreign currency</t>
-  </si>
-  <si>
-    <t>items is the difference between amortised cost in the functional currency at the beginning of the period, adjusted for</t>
-  </si>
-  <si>
-    <t>effective interest and payments during the period, and the amortised cost in foreign currency translated at the</t>
-  </si>
-  <si>
-    <t>exchange rate at the end of the year.</t>
-  </si>
-  <si>
-    <t>Non-monetary items denominated in foreign currencies that are measured at fair value</t>
-  </si>
-  <si>
-    <t>functional currency at the exchange rate at the date that the fair value was determined. Foreign currency differences</t>
-  </si>
-  <si>
-    <t>arising on retranslation are recognised in profit or loss.</t>
-  </si>
-  <si>
-    <t>Discontinued operation</t>
-  </si>
-  <si>
-    <t>clearly distinguished from the rest of the Company and which:</t>
-  </si>
-  <si>
-    <t>represents a separate major line of business of geographic area of operations;</t>
-  </si>
-  <si>
-    <t>is part of a single co-ordinated plan to dispose of a separate major line of business</t>
-  </si>
-  <si>
-    <t>operations; or</t>
-  </si>
-  <si>
-    <t>IS a subsidiary acquired exclusively with a view to resale.</t>
-  </si>
-  <si>
-    <t>Classification as a discontinued</t>
-  </si>
-  <si>
-    <t>be classified as held for sale.</t>
-  </si>
-  <si>
-    <t>When an operation is classified as a discontinued operation, the comparative statement of profit or loss and other</t>
-  </si>
-  <si>
-    <t>comprehensive income is re-presented as if the operation had been discontinued from the start of the comparative</t>
-  </si>
-  <si>
-    <t>Financial instruments</t>
-  </si>
-  <si>
-    <t>(i) Recognition and initial measurement</t>
-  </si>
-  <si>
-    <t>Trade and debt securities issued are initially recognised when they are originated. All other financial assets and financial liabilities are initially recognised when the Company becomes a party to the contractual provisions of the</t>
-  </si>
-  <si>
-    <t>instrument.</t>
-  </si>
-  <si>
-    <t>A financial asset (unless it is a trade receivable without a significant financing component) or financial liability is initially measured at fair value plus, for an item not at FVTPL transaction costs that are directly attri ibutable to its acquisition or</t>
-  </si>
-  <si>
-    <t>issue. A trade receivable without a significantfinancing component IS initially measured at the</t>
-  </si>
-  <si>
-    <t>(i) Classification and subsequent measurement</t>
-  </si>
-  <si>
-    <t>Financial assets</t>
-  </si>
-  <si>
-    <t>Oni initial recognition, a financial asset is classified as measured at: amortised cost; FVOCI equity investment; or FVTPL.</t>
-  </si>
-  <si>
-    <t>Financial assets are not reclassified subsequent to their ini itial recognition unless the Company changes its business model for managing financial assets, in which case all affected financial are reclassified on the first day of the</t>
-  </si>
-  <si>
-    <t>out below have been applied consistently to all periods presented in these financial</t>
-  </si>
-  <si>
-    <t>are translated to the functional currency of the Company</t>
-  </si>
-  <si>
-    <t>operation occurs at the earlier of disposal or when the operation meets the criteria to</t>
-  </si>
-  <si>
-    <t>at exchange rates at the</t>
-  </si>
-  <si>
-    <t>at the reporting date are</t>
-  </si>
-  <si>
-    <t>gain or loss on monetary</t>
-  </si>
-  <si>
-    <t>are retranslated to the</t>
-  </si>
-  <si>
-    <t>or geographic area of</t>
-  </si>
-  <si>
-    <t>transaction price.</t>
-  </si>
-  <si>
-    <t>debt investment; FVOCI</t>
-  </si>
-  <si>
-    <t>Cash flows from operating activities</t>
-  </si>
-  <si>
-    <t>Cash receipts from customers</t>
-  </si>
-  <si>
-    <t>Cash paid to suppliers and employees</t>
-  </si>
-  <si>
-    <t>Cash generated from operations</t>
-  </si>
-  <si>
-    <t>Interest received</t>
-  </si>
-  <si>
-    <t>Interest paid</t>
-  </si>
-  <si>
-    <t>Income tax paid</t>
-  </si>
-  <si>
-    <t>Net cash (used in)/from operating activities</t>
-  </si>
-  <si>
-    <t>Cash flows from investing activities</t>
-  </si>
-  <si>
-    <t>Acquisition of property, plant and equipment</t>
-  </si>
-  <si>
-    <t>Proceeds from discontinued operations</t>
-  </si>
-  <si>
-    <t>Net cash (used in)/from investing activities</t>
-  </si>
-  <si>
-    <t>Cash flows from financing activities</t>
-  </si>
-  <si>
-    <t>Payment of lease liabilities</t>
-  </si>
-  <si>
-    <t>Dividends paid</t>
-  </si>
-  <si>
-    <t>Net cash used in financing activities</t>
-  </si>
-  <si>
-    <t>Net Idecreasel/increase in cash and cash equivalents</t>
-  </si>
-  <si>
-    <t>Cash and cash equivalents at beginning of year</t>
-  </si>
-  <si>
-    <t>Cash and cash equivalents at end of year</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>7la)</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>141418</t>
-  </si>
-  <si>
-    <t>(132,280)</t>
-  </si>
-  <si>
-    <t>9138</t>
-  </si>
-  <si>
-    <t>(17,997)</t>
-  </si>
-  <si>
-    <t>(8,727)</t>
-  </si>
-  <si>
-    <t>(962)</t>
-  </si>
-  <si>
-    <t>(4,293)</t>
-  </si>
-  <si>
-    <t>(36,491)</t>
-  </si>
-  <si>
-    <t>(40,784)</t>
-  </si>
-  <si>
-    <t>(50,473)</t>
-  </si>
-  <si>
-    <t>153942</t>
-  </si>
-  <si>
-    <t>(145,925)</t>
-  </si>
-  <si>
-    <t>8017</t>
-  </si>
-  <si>
-    <t>(3,632)</t>
-  </si>
-  <si>
-    <t>4268</t>
-  </si>
-  <si>
-    <t>(885)</t>
-  </si>
-  <si>
-    <t>74379</t>
-  </si>
-  <si>
-    <t>(1,931)</t>
-  </si>
-  <si>
-    <t>(3,030)</t>
-  </si>
-  <si>
-    <t>(4,961)</t>
-  </si>
-  <si>
-    <t>73686</t>
-  </si>
-  <si>
-    <t>18629</t>
-  </si>
-  <si>
-    <t>Balance at 1 January 2021</t>
-  </si>
-  <si>
-    <t>Total comprehensive income for the year</t>
-  </si>
-  <si>
-    <t>Profit for the year</t>
-  </si>
-  <si>
-    <t>Other comprehensive income</t>
-  </si>
-  <si>
-    <t>Transactions with owners, recorded directly in equity</t>
-  </si>
-  <si>
-    <t>Dividends to equity holders 15</t>
-  </si>
-  <si>
-    <t>Total transactions with owners, recorded directly in equity</t>
-  </si>
-  <si>
-    <t>Balance at 31 2021 15</t>
-  </si>
-  <si>
-    <t>Balance at 1January 2022</t>
-  </si>
-  <si>
-    <t>Balance at 31 December 2022 15</t>
-  </si>
-  <si>
-    <t>Share capital $'000</t>
-  </si>
-  <si>
-    <t>Retained earnings $'000</t>
-  </si>
-  <si>
-    <t>44012</t>
-  </si>
-  <si>
-    <t>38841</t>
-  </si>
-  <si>
-    <t>79823</t>
-  </si>
-  <si>
-    <t>7054</t>
-  </si>
-  <si>
-    <t>50386</t>
-  </si>
-  <si>
-    <t>Total $'000</t>
-  </si>
-  <si>
-    <t>59012</t>
-  </si>
-  <si>
-    <t>94823</t>
-  </si>
-  <si>
-    <t>65386</t>
-  </si>
-  <si>
-    <t>Assets</t>
-  </si>
-  <si>
-    <t>Inventories</t>
-  </si>
-  <si>
-    <t>Total current assets</t>
-  </si>
-  <si>
-    <t>Deferred tax assets</t>
-  </si>
-  <si>
-    <t>Other assets</t>
-  </si>
-  <si>
-    <t>Total assets</t>
-  </si>
-  <si>
-    <t>Liabilities</t>
-  </si>
-  <si>
-    <t>Lease liabili ties</t>
-  </si>
-  <si>
-    <t>Current tax liability</t>
-  </si>
-  <si>
-    <t>Total current liabilities</t>
-  </si>
-  <si>
-    <t>Deferred tax liabilities</t>
-  </si>
-  <si>
-    <t>Total non-current liabilities</t>
-  </si>
-  <si>
-    <t>Total liabilities</t>
-  </si>
-  <si>
-    <t>Net assets</t>
-  </si>
-  <si>
-    <t>Equity</t>
-  </si>
-  <si>
-    <t>Share capital</t>
-  </si>
-  <si>
-    <t>Retained earnin ngs</t>
-  </si>
-  <si>
-    <t>Total equity</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>6(c)</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>680</t>
-  </si>
-  <si>
-    <t>102051</t>
-  </si>
-  <si>
-    <t>9943</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>11347</t>
-  </si>
-  <si>
-    <t>113398</t>
-  </si>
-  <si>
-    <t>1779</t>
-  </si>
-  <si>
-    <t>43239</t>
-  </si>
-  <si>
-    <t>4773</t>
-  </si>
-  <si>
-    <t>48012</t>
-  </si>
-  <si>
-    <t>815</t>
-  </si>
-  <si>
-    <t>146494</t>
-  </si>
-  <si>
-    <t>11358</t>
-  </si>
-  <si>
-    <t>13072</t>
-  </si>
-  <si>
-    <t>159566</t>
-  </si>
-  <si>
-    <t>16698</t>
-  </si>
-  <si>
-    <t>57070</t>
-  </si>
-  <si>
-    <t>7673</t>
-  </si>
-  <si>
-    <t>64743</t>
-  </si>
-  <si>
-    <t>Continuing operations</t>
-  </si>
-  <si>
-    <t>Other rincome</t>
-  </si>
-  <si>
-    <t>Cost of good sold (raw materials, goods purchased and change in</t>
-  </si>
-  <si>
-    <t>Depreciation and amortisation</t>
-  </si>
-  <si>
-    <t>Employee expenses</t>
-  </si>
-  <si>
-    <t>Freight and cartage expenses</t>
-  </si>
-  <si>
-    <t>Marketing and advertisement expenses</t>
-  </si>
-  <si>
-    <t>Occupancy, utilities and office expenses</t>
-  </si>
-  <si>
-    <t>Other expenses</t>
-  </si>
-  <si>
-    <t>Net finance income / (costs)</t>
-  </si>
-  <si>
-    <t>Income tax expense</t>
-  </si>
-  <si>
-    <t>Profit from continuing operations</t>
-  </si>
-  <si>
-    <t>Profit from discontinued operation, net of tax</t>
-  </si>
-  <si>
-    <t>Other comprehens isive income for the period, net of tax</t>
-  </si>
-  <si>
-    <t>6la)</t>
-  </si>
-  <si>
-    <t>127121</t>
-  </si>
-  <si>
-    <t>922</t>
-  </si>
-  <si>
-    <t>(91,345)</t>
-  </si>
-  <si>
-    <t>(3,265)</t>
-  </si>
-  <si>
-    <t>(7,616)</t>
-  </si>
-  <si>
-    <t>(8,039)</t>
-  </si>
-  <si>
-    <t>(2,728)</t>
-  </si>
-  <si>
-    <t>(2,642)</t>
-  </si>
-  <si>
-    <t>(2,098)</t>
-  </si>
-  <si>
-    <t>10310</t>
-  </si>
-  <si>
-    <t>(3,388)</t>
-  </si>
-  <si>
-    <t>123354</t>
-  </si>
-  <si>
-    <t>(85,830)</t>
-  </si>
-  <si>
-    <t>(2,773)</t>
-  </si>
-  <si>
-    <t>(10,835)</t>
-  </si>
-  <si>
-    <t>(7,743)</t>
-  </si>
-  <si>
-    <t>(2,613)</t>
-  </si>
-  <si>
-    <t>(3,829)</t>
-  </si>
-  <si>
-    <t>(2,895)</t>
-  </si>
-  <si>
-    <t>6836</t>
   </si>
   <si>
     <t>(2,019)</t>
@@ -2332,10 +2349,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="B2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2354,10 +2371,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="B4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
@@ -2368,44 +2385,44 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E5" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2424,10 +2441,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="B9" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D9" t="s">
         <v>37</v>
@@ -2438,36 +2455,36 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E10" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E11" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2476,40 +2493,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3">
-      <c r="C45" t="s">
-        <v>140</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D29"/>
   <sheetViews>
@@ -2533,25 +2516,22 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5">
-        <v>7</v>
-      </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2564,7 +2544,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C7" t="s">
         <v>37</v>
@@ -2575,98 +2555,98 @@
     </row>
     <row r="8" spans="1:4">
       <c r="B8" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D8" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D9" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D11" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D12" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D13" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D14" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D15" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:4">
+      <c r="A16">
+        <v>8</v>
+      </c>
       <c r="B16" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="B17" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C17" t="s">
-        <v>164</v>
-      </c>
-      <c r="D17" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="B18" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C18" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D18" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="B19" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C19" t="s">
         <v>64</v>
@@ -2680,7 +2660,7 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2696,21 +2676,18 @@
     </row>
     <row r="22" spans="1:4">
       <c r="B22" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C22" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D22" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="B23" t="s">
-        <v>159</v>
-      </c>
-      <c r="C23" t="s">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="D23" t="s">
         <v>53</v>
@@ -2718,56 +2695,56 @@
     </row>
     <row r="24" spans="1:4">
       <c r="C24" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D24" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="B25" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="B26" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C26" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D26" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="B27" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C27" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D27" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="B28" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C28" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D28" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="C29" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2775,7 +2752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -2804,7 +2781,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
@@ -2815,39 +2792,39 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="C8" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2855,7 +2832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -2879,26 +2856,26 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D3" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -2912,135 +2889,135 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C6" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D6" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B8" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C8" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D8" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B9" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C9" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D9" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B10" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C10" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D10" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B11" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C11" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D11" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C12" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D12" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C13" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D13" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C14" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D14" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C15" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D15" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3048,7 +3025,7 @@
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D16" t="s">
         <v>39</v>
@@ -3067,102 +3044,102 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C19" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D19" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C20" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D20" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C21" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D21" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B22" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C22" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D22" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B23" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C23" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D23" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B24" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C24" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D24" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="B25" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C25" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D25" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3170,7 +3147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C37"/>
   <sheetViews>
@@ -3199,10 +3176,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B3" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C3" t="s">
         <v>37</v>
@@ -3210,97 +3187,97 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B4" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C4" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C5" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B6" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C6" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C8" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B10" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C10" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B11" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C11" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B13" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C13" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3308,224 +3285,224 @@
         <v>98</v>
       </c>
       <c r="B14" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C14" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B15" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C15" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B16" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C16" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B19" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C19" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B20" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C20" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C21" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B23" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C23" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B24" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C24" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B26" t="s">
         <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B27" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C27" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B28" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C28" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B30" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C30" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B31" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C31" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B32" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C32" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B33" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C33" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B34" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C34" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B35" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C35" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B36" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="B37" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C37" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3533,7 +3510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F35"/>
   <sheetViews>
@@ -3563,240 +3540,240 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C4" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D4" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E4" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F4" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C5" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D5" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E5" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F5" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C8" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D8" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C9" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D9" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E9" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C10" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D10" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E10" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C11" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D11" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C12" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D12" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E12" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C13" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D13" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E13" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C14" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D14" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E14" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F14" t="s">
-        <v>365</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C15" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D15" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E15" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C16" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="D16" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="E16" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="F16" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="B17" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C17" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D17" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E17" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="B18" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C18" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D18" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E18" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F18" t="s">
         <v>366</v>
@@ -3804,16 +3781,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="B19" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C19" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D19" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E19" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F19" t="s">
         <v>367</v>
@@ -3821,55 +3798,55 @@
     </row>
     <row r="20" spans="1:6">
       <c r="B20" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C20" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D20" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E20" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F20" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="B21" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="B22" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C22" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D22" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E22" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F22" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="B23" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C23" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D23" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E23" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F23" t="s">
         <v>368</v>
@@ -3877,38 +3854,38 @@
     </row>
     <row r="24" spans="1:6">
       <c r="B24" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C24" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D24" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="E24" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F24" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="B25" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="B26" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C26" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D26" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E26" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F26" t="s">
         <v>369</v>
@@ -3916,16 +3893,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="B27" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C27" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D27" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E27" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F27" t="s">
         <v>370</v>
@@ -3933,29 +3910,29 @@
     </row>
     <row r="28" spans="1:6">
       <c r="B28" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B29" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="B30" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C30" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D30" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E30" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F30" t="s">
         <v>371</v>
@@ -3963,16 +3940,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="B31" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C31" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D31" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E31" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F31" t="s">
         <v>372</v>
@@ -3980,64 +3957,64 @@
     </row>
     <row r="32" spans="1:6">
       <c r="B32" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C32" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D32" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C33" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D33" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E33" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F33" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C34" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D34" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E34" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F34" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C35" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D35" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E35" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F35" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -4045,9 +4022,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4066,7 +4043,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4080,47 +4057,55 @@
         <v>373</v>
       </c>
     </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B6" t="s">
+        <v>374</v>
+      </c>
+    </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B11" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B12" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C12" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4128,7 +4113,10 @@
         <v>379</v>
       </c>
       <c r="B13" t="s">
-        <v>394</v>
+        <v>379</v>
+      </c>
+      <c r="C13" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4136,10 +4124,7 @@
         <v>380</v>
       </c>
       <c r="B14" t="s">
-        <v>380</v>
-      </c>
-      <c r="C14" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4150,7 +4135,7 @@
         <v>381</v>
       </c>
       <c r="C15" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4161,7 +4146,7 @@
         <v>382</v>
       </c>
       <c r="C16" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4172,53 +4157,53 @@
         <v>383</v>
       </c>
       <c r="C17" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>380</v>
-      </c>
-      <c r="B19" t="s">
-        <v>380</v>
-      </c>
-      <c r="C19" t="s">
-        <v>380</v>
+        <v>401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>384</v>
+      </c>
+      <c r="B18" t="s">
+        <v>384</v>
+      </c>
+      <c r="C18" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B20" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C20" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>384</v>
-      </c>
-      <c r="B22" t="s">
-        <v>384</v>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>377</v>
+      </c>
+      <c r="B21" t="s">
+        <v>377</v>
+      </c>
+      <c r="C21" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>385</v>
       </c>
+      <c r="B23" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>373</v>
-      </c>
-      <c r="B24" t="s">
-        <v>373</v>
-      </c>
-      <c r="C24" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4229,34 +4214,34 @@
         <v>373</v>
       </c>
       <c r="C25" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>386</v>
+        <v>373</v>
+      </c>
+      <c r="B26" t="s">
+        <v>373</v>
+      </c>
+      <c r="C26" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>387</v>
       </c>
-      <c r="B27" t="s">
-        <v>387</v>
-      </c>
-      <c r="C27" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>388</v>
       </c>
-      <c r="B29" t="s">
-        <v>395</v>
-      </c>
-      <c r="C29" t="s">
-        <v>395</v>
+      <c r="B28" t="s">
+        <v>388</v>
+      </c>
+      <c r="C28" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -4264,7 +4249,10 @@
         <v>389</v>
       </c>
       <c r="B30" t="s">
-        <v>389</v>
+        <v>396</v>
+      </c>
+      <c r="C30" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4272,10 +4260,7 @@
         <v>390</v>
       </c>
       <c r="B31" t="s">
-        <v>396</v>
-      </c>
-      <c r="C31" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4286,18 +4271,29 @@
         <v>397</v>
       </c>
       <c r="C32" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
         <v>392</v>
       </c>
-      <c r="B34" t="s">
-        <v>392</v>
-      </c>
-      <c r="C34" t="s">
-        <v>405</v>
+      <c r="B33" t="s">
+        <v>398</v>
+      </c>
+      <c r="C33" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>393</v>
+      </c>
+      <c r="B35" t="s">
+        <v>393</v>
+      </c>
+      <c r="C35" t="s">
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -4305,7 +4301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -4332,74 +4328,74 @@
     </row>
     <row r="2" spans="1:5">
       <c r="B2" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C2" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D2" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C3" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D3" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E3" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C4" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D4" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C5" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D5" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C6" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D6" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -4407,7 +4403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A18"/>
   <sheetViews>
@@ -4422,87 +4418,439 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>436</v>
+        <v>439</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C3" t="s">
+        <v>476</v>
+      </c>
+      <c r="D3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C6" t="s">
+        <v>477</v>
+      </c>
+      <c r="D6" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" t="s">
+        <v>448</v>
+      </c>
+      <c r="C7" t="s">
+        <v>448</v>
+      </c>
+      <c r="D7" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C8" t="s">
+        <v>449</v>
+      </c>
+      <c r="D8" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" t="s">
+        <v>450</v>
+      </c>
+      <c r="C9" t="s">
+        <v>450</v>
+      </c>
+      <c r="D9" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" t="s">
+        <v>451</v>
+      </c>
+      <c r="C10" t="s">
+        <v>451</v>
+      </c>
+      <c r="D10" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" t="s">
+        <v>452</v>
+      </c>
+      <c r="C11" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" t="s">
+        <v>453</v>
+      </c>
+      <c r="C12" t="s">
+        <v>453</v>
+      </c>
+      <c r="D12" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" t="s">
+        <v>454</v>
+      </c>
+      <c r="C13" t="s">
+        <v>454</v>
+      </c>
+      <c r="D13" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" t="s">
+        <v>455</v>
+      </c>
+      <c r="C14" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>441</v>
+      </c>
+      <c r="B15" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" t="s">
+        <v>457</v>
+      </c>
+      <c r="C16" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="B17" t="s">
+        <v>458</v>
+      </c>
+      <c r="C17" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="B18" t="s">
+        <v>459</v>
+      </c>
+      <c r="C18" t="s">
+        <v>459</v>
+      </c>
+      <c r="D18" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="B19" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" t="s">
+        <v>461</v>
+      </c>
+      <c r="C20" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="B21" t="s">
+        <v>462</v>
+      </c>
+      <c r="C21" t="s">
+        <v>478</v>
+      </c>
+      <c r="D21" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="B22" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="B23" t="s">
+        <v>464</v>
+      </c>
+      <c r="C23" t="s">
+        <v>464</v>
+      </c>
+      <c r="D23" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="B24" t="s">
+        <v>465</v>
+      </c>
+      <c r="C24" t="s">
+        <v>465</v>
+      </c>
+      <c r="D24" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>442</v>
+      </c>
+      <c r="B25" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="B26" t="s">
+        <v>467</v>
+      </c>
+      <c r="C26" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" t="s">
+        <v>468</v>
+      </c>
+      <c r="C27" t="s">
+        <v>468</v>
+      </c>
+      <c r="D27" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" t="s">
+        <v>468</v>
+      </c>
+      <c r="C28" t="s">
+        <v>468</v>
+      </c>
+      <c r="D28" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" t="s">
+        <v>470</v>
+      </c>
+      <c r="C30" t="s">
+        <v>470</v>
+      </c>
+      <c r="D30" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31" t="s">
+        <v>470</v>
+      </c>
+      <c r="C31" t="s">
+        <v>470</v>
+      </c>
+      <c r="D31" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="B32" t="s">
+        <v>471</v>
+      </c>
+      <c r="C32" t="s">
+        <v>471</v>
+      </c>
+      <c r="D32" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" t="s">
+        <v>472</v>
+      </c>
+      <c r="C33" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" t="s">
+        <v>474</v>
+      </c>
+      <c r="C35" t="s">
+        <v>474</v>
+      </c>
+      <c r="D35" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" t="s">
+        <v>475</v>
+      </c>
+      <c r="C36" t="s">
+        <v>475</v>
+      </c>
+      <c r="D36" t="s">
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -4727,361 +5075,6 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3" t="s">
-        <v>441</v>
-      </c>
-      <c r="C3" t="s">
-        <v>473</v>
-      </c>
-      <c r="D3" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4" t="s">
-        <v>442</v>
-      </c>
-      <c r="C4" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>437</v>
-      </c>
-      <c r="B5" t="s">
-        <v>443</v>
-      </c>
-      <c r="D5" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" t="s">
-        <v>444</v>
-      </c>
-      <c r="C6" t="s">
-        <v>474</v>
-      </c>
-      <c r="D6" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" t="s">
-        <v>445</v>
-      </c>
-      <c r="C7" t="s">
-        <v>445</v>
-      </c>
-      <c r="D7" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" t="s">
-        <v>446</v>
-      </c>
-      <c r="C8" t="s">
-        <v>446</v>
-      </c>
-      <c r="D8" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" t="s">
-        <v>447</v>
-      </c>
-      <c r="C9" t="s">
-        <v>447</v>
-      </c>
-      <c r="D9" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" t="s">
-        <v>448</v>
-      </c>
-      <c r="C10" t="s">
-        <v>448</v>
-      </c>
-      <c r="D10" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" t="s">
-        <v>449</v>
-      </c>
-      <c r="C11" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" t="s">
-        <v>450</v>
-      </c>
-      <c r="C12" t="s">
-        <v>450</v>
-      </c>
-      <c r="D12" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" t="s">
-        <v>451</v>
-      </c>
-      <c r="C13" t="s">
-        <v>451</v>
-      </c>
-      <c r="D13" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" t="s">
-        <v>452</v>
-      </c>
-      <c r="C14" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>438</v>
-      </c>
-      <c r="B15" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16" t="s">
-        <v>454</v>
-      </c>
-      <c r="C16" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="B17" t="s">
-        <v>455</v>
-      </c>
-      <c r="C17" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="B18" t="s">
-        <v>456</v>
-      </c>
-      <c r="C18" t="s">
-        <v>456</v>
-      </c>
-      <c r="D18" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="B19" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="B20" t="s">
-        <v>458</v>
-      </c>
-      <c r="C20" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="B21" t="s">
-        <v>459</v>
-      </c>
-      <c r="C21" t="s">
-        <v>475</v>
-      </c>
-      <c r="D21" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="B22" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="B23" t="s">
-        <v>461</v>
-      </c>
-      <c r="C23" t="s">
-        <v>461</v>
-      </c>
-      <c r="D23" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="B24" t="s">
-        <v>462</v>
-      </c>
-      <c r="C24" t="s">
-        <v>462</v>
-      </c>
-      <c r="D24" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>439</v>
-      </c>
-      <c r="B25" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="B26" t="s">
-        <v>464</v>
-      </c>
-      <c r="C26" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="B27" t="s">
-        <v>465</v>
-      </c>
-      <c r="C27" t="s">
-        <v>465</v>
-      </c>
-      <c r="D27" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="B28" t="s">
-        <v>465</v>
-      </c>
-      <c r="C28" t="s">
-        <v>465</v>
-      </c>
-      <c r="D28" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="B29" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="B30" t="s">
-        <v>467</v>
-      </c>
-      <c r="C30" t="s">
-        <v>467</v>
-      </c>
-      <c r="D30" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="B31" t="s">
-        <v>467</v>
-      </c>
-      <c r="C31" t="s">
-        <v>467</v>
-      </c>
-      <c r="D31" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="B32" t="s">
-        <v>468</v>
-      </c>
-      <c r="C32" t="s">
-        <v>468</v>
-      </c>
-      <c r="D32" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" t="s">
-        <v>469</v>
-      </c>
-      <c r="C33" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" t="s">
-        <v>471</v>
-      </c>
-      <c r="C35" t="s">
-        <v>471</v>
-      </c>
-      <c r="D35" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" t="s">
-        <v>472</v>
-      </c>
-      <c r="C36" t="s">
-        <v>472</v>
-      </c>
-      <c r="D36" t="s">
-        <v>472</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5104,7 +5097,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -5123,202 +5116,199 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C5" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D5" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C6" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="D6" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="D7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>487</v>
-      </c>
-      <c r="B8" t="s">
-        <v>252</v>
+        <v>490</v>
       </c>
       <c r="C8" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D8" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B9" t="s">
-        <v>252</v>
+        <v>506</v>
       </c>
       <c r="C9" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D9" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C10" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="D10" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C11" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="D11" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C13" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="D13" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B14" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D14" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C15" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="D15" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B17" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C17" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D17" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B18" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C18" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="D18" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C19" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="D19" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C20" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D20" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C21" t="s">
         <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B22" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C22" t="s">
         <v>64</v>
@@ -5332,7 +5322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -5356,190 +5346,190 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B2" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C2" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="D2" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B3" t="s">
         <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="D3" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C5" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="D5" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="C7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="D7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C9" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D9" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C10" t="s">
-        <v>525</v>
+        <v>547</v>
       </c>
       <c r="D10" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B11" t="s">
         <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="D11" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B12" t="s">
         <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="D12" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C14" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="D14" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="C16" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="D16" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C18" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="D18" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C19" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="D19" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B20" t="s">
         <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="D20" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -5547,7 +5537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D30"/>
   <sheetViews>
@@ -5571,7 +5561,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -5590,16 +5580,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>56</v>
       </c>
-      <c r="B5" t="s">
-        <v>506</v>
-      </c>
       <c r="C5" t="s">
         <v>64</v>
       </c>
@@ -5609,118 +5596,115 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B6" t="s">
-        <v>568</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D6" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="B7" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="C7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C8" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="D8" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="C9" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="D9" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="B10" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="C10" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D10" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B11" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C11" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="D11" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="C12" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="D12" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>560</v>
       </c>
       <c r="C13" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="D13" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="C14" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="D14" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5734,57 +5718,57 @@
         <v>107</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="B17" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C17" t="s">
         <v>110</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B18" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="C19" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="D19" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="C20" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="D20" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5792,32 +5776,32 @@
         <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C21" t="s">
         <v>111</v>
       </c>
       <c r="D21" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B22" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B23" t="s">
         <v>87</v>
@@ -5825,48 +5809,48 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="C24" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="D24" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="C25" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="D25" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="C26" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="D26" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="B28" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C28" t="s">
         <v>81</v>
@@ -5877,24 +5861,24 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="C29" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="D29" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="C30" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="D30" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -5902,7 +5886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -5926,7 +5910,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -5945,229 +5929,229 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="D5" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="C6" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="C7" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="D7" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="C8" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="D8" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C9" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="D9" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="C10" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="D10" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="C11" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="D11" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="C12" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="D12" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="C13" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="D13" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C14" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="D14" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>403</v>
+        <v>257</v>
       </c>
       <c r="C15" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D15" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C16" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D16" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="B17" t="s">
-        <v>252</v>
+        <v>506</v>
       </c>
       <c r="C17" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D17" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C18" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D18" t="s">
-        <v>299</v>
+        <v>631</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="B19" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="C19" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="D19" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="C20" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="D20" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="D22" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C23" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="D23" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="C25" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="D25" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -6718,7 +6702,7 @@
         <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6726,7 +6710,7 @@
         <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6742,7 +6726,7 @@
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6753,7 +6737,7 @@
         <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6764,7 +6748,7 @@
         <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6775,7 +6759,7 @@
         <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6786,7 +6770,7 @@
         <v>110</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6797,7 +6781,7 @@
         <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6813,7 +6797,7 @@
         <v>112</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6824,7 +6808,7 @@
         <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6840,7 +6824,7 @@
         <v>114</v>
       </c>
       <c r="C19" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6861,15 +6845,15 @@
         <v>115</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6882,18 +6866,18 @@
         <v>104</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C25" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="B26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
